--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE6002 TA2 Model 1.1.1/ASE6002PEK-Cost-Modeling-1-28/Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A090F034-E6D9-431D-B3F2-F17A9FF0FE6F}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A153385F-6FAF-469A-8B49-EFA60817E132}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>cost_lid</t>
   </si>
@@ -56,13 +53,35 @@
   </si>
   <si>
     <t>Total_Cost</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>container_cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +107,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +456,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,41 +466,58 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>239.32793123862101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>7.6144999999999996</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>28.35</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <f>B3+B4</f>
-        <v>35.964500000000001</v>
+        <f>SUM(B2:B7)</f>
+        <v>275.29243123862102</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca57021359940ea9/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A153385F-6FAF-469A-8B49-EFA60817E132}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68051005-7FE5-4A66-96A9-87668BA94E1A}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>cost_lid</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>container_cost</t>
+  </si>
+  <si>
+    <t>Test Equipment</t>
+  </si>
+  <si>
+    <t>Manufacturing Tooling</t>
+  </si>
+  <si>
+    <t>QA Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safety and compliance testing </t>
+  </si>
+  <si>
+    <t>Fixed Costs</t>
+  </si>
+  <si>
+    <t>Total_fixed_costs</t>
   </si>
 </sst>
 </file>
@@ -130,10 +148,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,18 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1A7304-AB3A-4B8B-82AA-38816B5F8F53}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -474,8 +489,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -485,8 +503,17 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>25000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -496,8 +523,17 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>80000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -507,8 +543,40 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>25000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G2:G5)</f>
+        <v>140000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca57021359940ea9/Documents/GitHub/ASE6002PEK/Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68051005-7FE5-4A66-96A9-87668BA94E1A}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ADF9D8-3541-4845-BF7F-417B28D9CF37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>239.32793123862101</v>
+        <v>3.6413454393883802</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -582,7 +586,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>275.29243123862102</v>
+        <v>39.605845439388382</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ADF9D8-3541-4845-BF7F-417B28D9CF37}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B3E719-B951-4064-9388-400A7E25A2D4}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>cost_lid</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Total_fixed_costs</t>
+  </si>
+  <si>
+    <t>heating element</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>28.35</v>
+        <v>179.55</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -558,6 +561,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
@@ -586,7 +595,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>39.605845439388382</v>
+        <v>198.80584543938841</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B3E719-B951-4064-9388-400A7E25A2D4}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500AC052-7D24-4AF9-864F-F32287F71B24}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>3.6413454393883802</v>
+        <v>2.0377269571945198</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>7.6144999999999996</v>
+        <v>6.8565259664597198</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>179.55</v>
+        <v>621</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>8.8993031997326408</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>198.80584543938841</v>
+        <v>638.79355612338691</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500AC052-7D24-4AF9-864F-F32287F71B24}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CDE716-3C53-498F-9230-CEC7BB31A9F2}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0377269571945198</v>
+        <v>2.0255432572060301</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>638.79355612338691</v>
+        <v>638.78137242339847</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CDE716-3C53-498F-9230-CEC7BB31A9F2}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81403DB4-F72F-4F78-A69F-EBF2C910F6EC}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Battery_Cost">Sheet1!$B$4</definedName>
+    <definedName name="Battery_Cost_USD">Sheet1!$B$4</definedName>
     <definedName name="cost_lid">Sheet1!$B$3</definedName>
     <definedName name="Total_Cost">Sheet1!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,9 +46,6 @@
     <t>cost_lid</t>
   </si>
   <si>
-    <t>Battery_Cost</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>heating element</t>
+  </si>
+  <si>
+    <t>Battery_Cost_USD</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,36 +488,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.00238838189764</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.0255432572060301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2">
         <v>25000</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,77 +528,77 @@
         <v>6.8565259664597198</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>80000</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>621</v>
+        <v>28.35</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>10000</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>8.8993031997326408</v>
+        <v>8.8994694900443996</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>25000</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <f>SUM(G2:G5)</f>
         <v>140000</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>638.78137242339847</v>
+        <v>46.108383838401764</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81403DB4-F72F-4F78-A69F-EBF2C910F6EC}"/>
+  <xr:revisionPtr revIDLastSave="863" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58B25F3-3F17-4CD0-B8BC-85A6697378EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>cost_lid</t>
   </si>
@@ -49,9 +49,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Total_Cost</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -86,6 +83,15 @@
   </si>
   <si>
     <t>Battery_Cost_USD</t>
+  </si>
+  <si>
+    <t>unit quantity</t>
+  </si>
+  <si>
+    <t>Fixed_costs_per_unit</t>
+  </si>
+  <si>
+    <t>Total_Variable_Cost</t>
   </si>
 </sst>
 </file>
@@ -477,41 +483,41 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0065108174152999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.00238838189764</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
       <c r="G2">
         <v>25000</v>
@@ -531,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>80000</v>
@@ -542,7 +548,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>28.35</v>
@@ -551,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>10000</v>
@@ -562,13 +568,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>8.8994694900443996</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>25000</v>
@@ -578,8 +584,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <f>SUM(G2:G5)</f>
@@ -591,14 +603,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>46.108383838401764</v>
+        <f>SUM(B2:B5)</f>
+        <v>46.112506273919422</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="e">
+        <f>G6 / B6</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Cost.xlsx
+++ b/Cost/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="863" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58B25F3-3F17-4CD0-B8BC-85A6697378EF}"/>
+  <xr:revisionPtr revIDLastSave="22464" documentId="8_{2ED45462-44C2-47F0-8A13-4996CA137E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{506DCAA1-340F-4B72-ACE6-08B4AA29924D}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{BC878E6E-4D73-4248-A308-30E2E8B17DDC}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0065108174152999</v>
+        <v>8.3788199260252707</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>6.8565259664597198</v>
+        <v>12.341746739627499</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B5)</f>
-        <v>46.112506273919422</v>
+        <v>57.970036155697173</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -615,9 +615,9 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8">
         <f>G6 / B6</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
